--- a/biology/Médecine/Méridien_en_médecine_traditionnelle_chinoise/Méridien_en_médecine_traditionnelle_chinoise.xlsx
+++ b/biology/Médecine/Méridien_en_médecine_traditionnelle_chinoise/Méridien_en_médecine_traditionnelle_chinoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9ridien_en_m%C3%A9decine_traditionnelle_chinoise</t>
+          <t>Méridien_en_médecine_traditionnelle_chinoise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les méridiens en médecine traditionnelle chinoise seraient des canaux du corps humain, interconnectés, par lesquels circule le qi (氣 en chinois), l'énergie supposée vitale du corps. Il en existerait de plusieurs types, liés aux théories de l'anma, du Yin et yang et des cinq éléments. L'acupuncture et le shiatsu font partie des applications les plus courantes de cette théorie, que l'on retrouve également dans certains arts martiaux comme le Tai Chi Chuan.
 La communauté scientifique rejette le concept de méridien comme étant issu d'une vision obsolète de la médecine, comme la théorie des humeurs. Il n'existe aucune preuve scientifique de leur existence, et l'acupuncture, supposée reposer sur la connaissance des méridiens, n'a pas été démontrée plus efficace que l'effet placebo.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9ridien_en_m%C3%A9decine_traditionnelle_chinoise</t>
+          <t>Méridien_en_médecine_traditionnelle_chinoise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les douze méridiens réguliers
-Chacun des 12 méridiens est relié à un ou plusieurs organes. Ils sont liés entre eux :
+          <t>Les douze méridiens réguliers</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chacun des 12 méridiens est relié à un ou plusieurs organes. Ils sont liés entre eux :
 en surface avec les membres supérieur et inférieur, la tête et le tronc,
 en profondeur, avec les organes zang "trésor" (cœur, péricarde, foie, rate, poumon, rein) ou avec les organes fu "atelier" (vésicule biliaire, estomac, intestin grêle, gros intestin, vessie) et San Jiao (le triple réchauffeur qui concerne les parties supérieure, moyenne et inférieure de la cavité du corps))
 D'autre part, la face interne des membres et les organes zang sont considérés comme se rapportant à yin tandis que la face externe des membres et organes fu sont considérés comme se rapportant à Yáng. Le nom par lequel on désigne chaque méridien comporte donc trois éléments : il peut être main ou pied, yin ou Yáng et enfin zang ou fu.
-Les huit méridiens extraordinaires
-Aux 12 méridiens majeurs précédents, il faut ajouter huit méridiens dits "extraordinaires" qui ne sont pas reliés à un organe en particulier :
 </t>
         </is>
       </c>
@@ -533,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9ridien_en_m%C3%A9decine_traditionnelle_chinoise</t>
+          <t>Méridien_en_médecine_traditionnelle_chinoise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +563,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Usage en acupuncture</t>
+          <t>Description et fonction des méridiens</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'acupuncture repose pour une grande partie sur la connaissance des méridiens, le praticien insérant ses aiguilles sur leur trajet, à des positions déterminées.
-Elle est utilisée dans certains hôpitaux, en spécialité gynécologie - obstétrique principalement[1].
+          <t>Les huit méridiens extraordinaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux 12 méridiens majeurs précédents, il faut ajouter huit méridiens dits "extraordinaires" qui ne sont pas reliés à un organe en particulier :
 </t>
         </is>
       </c>
@@ -565,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9ridien_en_m%C3%A9decine_traditionnelle_chinoise</t>
+          <t>Méridien_en_médecine_traditionnelle_chinoise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,18 +600,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Usage en acupuncture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acupuncture repose pour une grande partie sur la connaissance des méridiens, le praticien insérant ses aiguilles sur leur trajet, à des positions déterminées.
+Elle est utilisée dans certains hôpitaux, en spécialité gynécologie - obstétrique principalement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Méridien_en_médecine_traditionnelle_chinoise</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9ridien_en_m%C3%A9decine_traditionnelle_chinoise</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Point de vue scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe aucune preuve scientifique de l'existence des méridiens[2],[3].
-Steven Novella a écrit[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe aucune preuve scientifique de l'existence des méridiens,.
+Steven Novella a écrit :
         « TCM is a pre-scientific superstitious view of biology and illness, similar to the humoral theory of Galen, or the notions of any pre-scientific culture. It is strange and unscientific to treat TCM as anything else. »
         — Steven Novella, What Is Traditional Chinese Medicine?
         « La médecine traditionnelle chinoise est un point de vue pré-scientifique et empreint de superstition sur la biologie et la maladie, comme la théorie des humeurs de Galien, ou n'importe quelle notion issue d'une culture pré-scientifique. Il est étrange et non scientifique de la considérer autrement. »
         — What Is Traditional Chinese Medicine?
-Toute la théorie des méridiens qui sous-tend l'acupuncture est considérée comme une pseudo-science[5],[6]. 
+Toute la théorie des méridiens qui sous-tend l'acupuncture est considérée comme une pseudo-science,. 
 </t>
         </is>
       </c>
